--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Crlf1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.21643730443385</v>
+        <v>1.431948666666667</v>
       </c>
       <c r="H2">
-        <v>5.21643730443385</v>
+        <v>4.295846</v>
       </c>
       <c r="I2">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="J2">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.228336887222534</v>
+        <v>0.2646386666666666</v>
       </c>
       <c r="N2">
-        <v>0.228336887222534</v>
+        <v>0.793916</v>
       </c>
       <c r="O2">
-        <v>0.03406948738007796</v>
+        <v>0.03273099457589211</v>
       </c>
       <c r="P2">
-        <v>0.03406948738007796</v>
+        <v>0.03273099457589212</v>
       </c>
       <c r="Q2">
-        <v>1.191105056485931</v>
+        <v>0.3789489858817778</v>
       </c>
       <c r="R2">
-        <v>1.191105056485931</v>
+        <v>3.410540872936</v>
       </c>
       <c r="S2">
-        <v>0.01234967895470486</v>
+        <v>0.002539638968543111</v>
       </c>
       <c r="T2">
-        <v>0.01234967895470486</v>
+        <v>0.002539638968543111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.21643730443385</v>
+        <v>1.431948666666667</v>
       </c>
       <c r="H3">
-        <v>5.21643730443385</v>
+        <v>4.295846</v>
       </c>
       <c r="I3">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="J3">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.54337186641173</v>
+        <v>3.694492333333333</v>
       </c>
       <c r="N3">
-        <v>3.54337186641173</v>
+        <v>11.083477</v>
       </c>
       <c r="O3">
-        <v>0.5286962809823401</v>
+        <v>0.4569415726210645</v>
       </c>
       <c r="P3">
-        <v>0.5286962809823401</v>
+        <v>0.4569415726210645</v>
       </c>
       <c r="Q3">
-        <v>18.48377718743154</v>
+        <v>5.290323370726889</v>
       </c>
       <c r="R3">
-        <v>18.48377718743154</v>
+        <v>47.612910336542</v>
       </c>
       <c r="S3">
-        <v>0.191644484163747</v>
+        <v>0.03545467038849361</v>
       </c>
       <c r="T3">
-        <v>0.191644484163747</v>
+        <v>0.03545467038849361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.21643730443385</v>
+        <v>1.431948666666667</v>
       </c>
       <c r="H4">
-        <v>5.21643730443385</v>
+        <v>4.295846</v>
       </c>
       <c r="I4">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="J4">
-        <v>0.3624850241194499</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.93038466723867</v>
+        <v>0.197127</v>
       </c>
       <c r="N4">
-        <v>2.93038466723867</v>
+        <v>0.5913809999999999</v>
       </c>
       <c r="O4">
-        <v>0.4372342316375819</v>
+        <v>0.02438102809779077</v>
       </c>
       <c r="P4">
-        <v>0.4372342316375819</v>
+        <v>0.02438102809779077</v>
       </c>
       <c r="Q4">
-        <v>15.28616789452477</v>
+        <v>0.282275744814</v>
       </c>
       <c r="R4">
-        <v>15.28616789452477</v>
+        <v>2.540481703326</v>
       </c>
       <c r="S4">
-        <v>0.158490861000998</v>
+        <v>0.001891754584686533</v>
       </c>
       <c r="T4">
-        <v>0.158490861000998</v>
+        <v>0.001891754584686533</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.39667074056383</v>
+        <v>1.431948666666667</v>
       </c>
       <c r="H5">
-        <v>1.39667074056383</v>
+        <v>4.295846</v>
       </c>
       <c r="I5">
-        <v>0.09705325637670185</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="J5">
-        <v>0.09705325637670185</v>
+        <v>0.07759125567219005</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.228336887222534</v>
+        <v>3.929004</v>
       </c>
       <c r="N5">
-        <v>0.228336887222534</v>
+        <v>11.787012</v>
       </c>
       <c r="O5">
-        <v>0.03406948738007796</v>
+        <v>0.4859464047052526</v>
       </c>
       <c r="P5">
-        <v>0.03406948738007796</v>
+        <v>0.4859464047052526</v>
       </c>
       <c r="Q5">
-        <v>0.3189114493751363</v>
+        <v>5.626132039128001</v>
       </c>
       <c r="R5">
-        <v>0.3189114493751363</v>
+        <v>50.63518835215201</v>
       </c>
       <c r="S5">
-        <v>0.003306554693321515</v>
+        <v>0.0377051917304668</v>
       </c>
       <c r="T5">
-        <v>0.003306554693321515</v>
+        <v>0.0377051917304668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.39667074056383</v>
+        <v>5.232468</v>
       </c>
       <c r="H6">
-        <v>1.39667074056383</v>
+        <v>15.697404</v>
       </c>
       <c r="I6">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145308</v>
       </c>
       <c r="J6">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145307</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.54337186641173</v>
+        <v>0.2646386666666666</v>
       </c>
       <c r="N6">
-        <v>3.54337186641173</v>
+        <v>0.793916</v>
       </c>
       <c r="O6">
-        <v>0.5286962809823401</v>
+        <v>0.03273099457589211</v>
       </c>
       <c r="P6">
-        <v>0.5286962809823401</v>
+        <v>0.03273099457589212</v>
       </c>
       <c r="Q6">
-        <v>4.948923808754311</v>
+        <v>1.384713354896</v>
       </c>
       <c r="R6">
-        <v>4.948923808754311</v>
+        <v>12.462420194064</v>
       </c>
       <c r="S6">
-        <v>0.05131169570358786</v>
+        <v>0.009280067046948261</v>
       </c>
       <c r="T6">
-        <v>0.05131169570358786</v>
+        <v>0.009280067046948261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.39667074056383</v>
+        <v>5.232468</v>
       </c>
       <c r="H7">
-        <v>1.39667074056383</v>
+        <v>15.697404</v>
       </c>
       <c r="I7">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145308</v>
       </c>
       <c r="J7">
-        <v>0.09705325637670185</v>
+        <v>0.2835253608145307</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.93038466723867</v>
+        <v>3.694492333333333</v>
       </c>
       <c r="N7">
-        <v>2.93038466723867</v>
+        <v>11.083477</v>
       </c>
       <c r="O7">
-        <v>0.4372342316375819</v>
+        <v>0.4569415726210645</v>
       </c>
       <c r="P7">
-        <v>0.4372342316375819</v>
+        <v>0.4569415726210645</v>
       </c>
       <c r="Q7">
-        <v>4.092782523329126</v>
+        <v>19.331312910412</v>
       </c>
       <c r="R7">
-        <v>4.092782523329126</v>
+        <v>173.981816193708</v>
       </c>
       <c r="S7">
-        <v>0.04243500597979248</v>
+        <v>0.1295545242485464</v>
       </c>
       <c r="T7">
-        <v>0.04243500597979248</v>
+        <v>0.1295545242485464</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.2064799986053</v>
+        <v>5.232468</v>
       </c>
       <c r="H8">
-        <v>2.2064799986053</v>
+        <v>15.697404</v>
       </c>
       <c r="I8">
-        <v>0.1533260938138183</v>
+        <v>0.2835253608145308</v>
       </c>
       <c r="J8">
-        <v>0.1533260938138183</v>
+        <v>0.2835253608145307</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.228336887222534</v>
+        <v>0.197127</v>
       </c>
       <c r="N8">
-        <v>0.228336887222534</v>
+        <v>0.5913809999999999</v>
       </c>
       <c r="O8">
-        <v>0.03406948738007796</v>
+        <v>0.02438102809779077</v>
       </c>
       <c r="P8">
-        <v>0.03406948738007796</v>
+        <v>0.02438102809779077</v>
       </c>
       <c r="Q8">
-        <v>0.5038207746003154</v>
+        <v>1.031460719436</v>
       </c>
       <c r="R8">
-        <v>0.5038207746003154</v>
+        <v>9.283146474923999</v>
       </c>
       <c r="S8">
-        <v>0.005223741418226534</v>
+        <v>0.00691263978845534</v>
       </c>
       <c r="T8">
-        <v>0.005223741418226534</v>
+        <v>0.006912639788455339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.2064799986053</v>
+        <v>5.232468</v>
       </c>
       <c r="H9">
-        <v>2.2064799986053</v>
+        <v>15.697404</v>
       </c>
       <c r="I9">
-        <v>0.1533260938138183</v>
+        <v>0.2835253608145308</v>
       </c>
       <c r="J9">
-        <v>0.1533260938138183</v>
+        <v>0.2835253608145307</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.54337186641173</v>
+        <v>3.929004</v>
       </c>
       <c r="N9">
-        <v>3.54337186641173</v>
+        <v>11.787012</v>
       </c>
       <c r="O9">
-        <v>0.5286962809823401</v>
+        <v>0.4859464047052526</v>
       </c>
       <c r="P9">
-        <v>0.5286962809823401</v>
+        <v>0.4859464047052526</v>
       </c>
       <c r="Q9">
-        <v>7.818379150858213</v>
+        <v>20.558387701872</v>
       </c>
       <c r="R9">
-        <v>7.818379150858213</v>
+        <v>185.025489316848</v>
       </c>
       <c r="S9">
-        <v>0.08106293557691514</v>
+        <v>0.1377781297305808</v>
       </c>
       <c r="T9">
-        <v>0.08106293557691514</v>
+        <v>0.1377781297305807</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,247 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.2064799986053</v>
+        <v>1.834573333333333</v>
       </c>
       <c r="H10">
-        <v>2.2064799986053</v>
+        <v>5.50372</v>
       </c>
       <c r="I10">
-        <v>0.1533260938138183</v>
+        <v>0.0994077873527463</v>
       </c>
       <c r="J10">
-        <v>0.1533260938138183</v>
+        <v>0.09940778735274629</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.93038466723867</v>
+        <v>0.2646386666666666</v>
       </c>
       <c r="N10">
-        <v>2.93038466723867</v>
+        <v>0.793916</v>
       </c>
       <c r="O10">
-        <v>0.4372342316375819</v>
+        <v>0.03273099457589211</v>
       </c>
       <c r="P10">
-        <v>0.4372342316375819</v>
+        <v>0.03273099457589212</v>
       </c>
       <c r="Q10">
-        <v>6.465835156481774</v>
+        <v>0.4854990408355555</v>
       </c>
       <c r="R10">
-        <v>6.465835156481774</v>
+        <v>4.369491367519999</v>
       </c>
       <c r="S10">
-        <v>0.06703941681867666</v>
+        <v>0.003253715748644176</v>
       </c>
       <c r="T10">
-        <v>0.06703941681867666</v>
+        <v>0.003253715748644176</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.57117835317614</v>
+        <v>1.834573333333333</v>
       </c>
       <c r="H11">
-        <v>5.57117835317614</v>
+        <v>5.50372</v>
       </c>
       <c r="I11">
-        <v>0.3871356256900297</v>
+        <v>0.0994077873527463</v>
       </c>
       <c r="J11">
-        <v>0.3871356256900297</v>
+        <v>0.09940778735274629</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.228336887222534</v>
+        <v>3.694492333333333</v>
       </c>
       <c r="N11">
-        <v>0.228336887222534</v>
+        <v>11.083477</v>
       </c>
       <c r="O11">
-        <v>0.03406948738007796</v>
+        <v>0.4569415726210645</v>
       </c>
       <c r="P11">
-        <v>0.03406948738007796</v>
+        <v>0.4569415726210645</v>
       </c>
       <c r="Q11">
-        <v>1.272105523325803</v>
+        <v>6.777817114937777</v>
       </c>
       <c r="R11">
-        <v>1.272105523325803</v>
+        <v>61.00035403443999</v>
       </c>
       <c r="S11">
-        <v>0.01318951231382505</v>
+        <v>0.04542355068374426</v>
       </c>
       <c r="T11">
-        <v>0.01318951231382505</v>
+        <v>0.04542355068374426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.57117835317614</v>
+        <v>1.834573333333333</v>
       </c>
       <c r="H12">
-        <v>5.57117835317614</v>
+        <v>5.50372</v>
       </c>
       <c r="I12">
-        <v>0.3871356256900297</v>
+        <v>0.0994077873527463</v>
       </c>
       <c r="J12">
-        <v>0.3871356256900297</v>
+        <v>0.09940778735274629</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>3.54337186641173</v>
+        <v>0.197127</v>
       </c>
       <c r="N12">
-        <v>3.54337186641173</v>
+        <v>0.5913809999999999</v>
       </c>
       <c r="O12">
-        <v>0.5286962809823401</v>
+        <v>0.02438102809779077</v>
       </c>
       <c r="P12">
-        <v>0.5286962809823401</v>
+        <v>0.02438102809779077</v>
       </c>
       <c r="Q12">
-        <v>19.74075663940637</v>
+        <v>0.3616439374799999</v>
       </c>
       <c r="R12">
-        <v>19.74075663940637</v>
+        <v>3.254795437319999</v>
       </c>
       <c r="S12">
-        <v>0.20467716553809</v>
+        <v>0.002423664056586517</v>
       </c>
       <c r="T12">
-        <v>0.20467716553809</v>
+        <v>0.002423664056586517</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.834573333333333</v>
+      </c>
+      <c r="H13">
+        <v>5.50372</v>
+      </c>
+      <c r="I13">
+        <v>0.0994077873527463</v>
+      </c>
+      <c r="J13">
+        <v>0.09940778735274629</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.929004</v>
+      </c>
+      <c r="N13">
+        <v>11.787012</v>
+      </c>
+      <c r="O13">
+        <v>0.4859464047052526</v>
+      </c>
+      <c r="P13">
+        <v>0.4859464047052526</v>
+      </c>
+      <c r="Q13">
+        <v>7.20804596496</v>
+      </c>
+      <c r="R13">
+        <v>64.87241368463999</v>
+      </c>
+      <c r="S13">
+        <v>0.04830685686377135</v>
+      </c>
+      <c r="T13">
+        <v>0.04830685686377134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.375843333333334</v>
+      </c>
+      <c r="H14">
+        <v>7.12753</v>
+      </c>
+      <c r="I14">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="J14">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2646386666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.793916</v>
+      </c>
+      <c r="O14">
+        <v>0.03273099457589211</v>
+      </c>
+      <c r="P14">
+        <v>0.03273099457589212</v>
+      </c>
+      <c r="Q14">
+        <v>0.6287400119422222</v>
+      </c>
+      <c r="R14">
+        <v>5.658660107479999</v>
+      </c>
+      <c r="S14">
+        <v>0.004213687580388142</v>
+      </c>
+      <c r="T14">
+        <v>0.004213687580388142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.375843333333334</v>
+      </c>
+      <c r="H15">
+        <v>7.12753</v>
+      </c>
+      <c r="I15">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="J15">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.694492333333333</v>
+      </c>
+      <c r="N15">
+        <v>11.083477</v>
+      </c>
+      <c r="O15">
+        <v>0.4569415726210645</v>
+      </c>
+      <c r="P15">
+        <v>0.4569415726210645</v>
+      </c>
+      <c r="Q15">
+        <v>8.777534980201112</v>
+      </c>
+      <c r="R15">
+        <v>78.99781482181001</v>
+      </c>
+      <c r="S15">
+        <v>0.0588252527753788</v>
+      </c>
+      <c r="T15">
+        <v>0.05882525277537878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.375843333333334</v>
+      </c>
+      <c r="H16">
+        <v>7.12753</v>
+      </c>
+      <c r="I16">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="J16">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.197127</v>
+      </c>
+      <c r="N16">
+        <v>0.5913809999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.02438102809779077</v>
+      </c>
+      <c r="P16">
+        <v>0.02438102809779077</v>
+      </c>
+      <c r="Q16">
+        <v>0.46834286877</v>
+      </c>
+      <c r="R16">
+        <v>4.21508581893</v>
+      </c>
+      <c r="S16">
+        <v>0.003138738575589257</v>
+      </c>
+      <c r="T16">
+        <v>0.003138738575589256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.375843333333334</v>
+      </c>
+      <c r="H17">
+        <v>7.12753</v>
+      </c>
+      <c r="I17">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="J17">
+        <v>0.1287369245874281</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.929004</v>
+      </c>
+      <c r="N17">
+        <v>11.787012</v>
+      </c>
+      <c r="O17">
+        <v>0.4859464047052526</v>
+      </c>
+      <c r="P17">
+        <v>0.4859464047052526</v>
+      </c>
+      <c r="Q17">
+        <v>9.334697960040002</v>
+      </c>
+      <c r="R17">
+        <v>84.01228164036</v>
+      </c>
+      <c r="S17">
+        <v>0.06255924565607195</v>
+      </c>
+      <c r="T17">
+        <v>0.06255924565607193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.326571</v>
+      </c>
+      <c r="H18">
+        <v>3.979713</v>
+      </c>
+      <c r="I18">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="J18">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.2646386666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.793916</v>
+      </c>
+      <c r="O18">
+        <v>0.03273099457589211</v>
+      </c>
+      <c r="P18">
+        <v>0.03273099457589212</v>
+      </c>
+      <c r="Q18">
+        <v>0.3510619806786667</v>
+      </c>
+      <c r="R18">
+        <v>3.159557826108</v>
+      </c>
+      <c r="S18">
+        <v>0.002352745936054879</v>
+      </c>
+      <c r="T18">
+        <v>0.00235274593605488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.326571</v>
+      </c>
+      <c r="H19">
+        <v>3.979713</v>
+      </c>
+      <c r="I19">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="J19">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.694492333333333</v>
+      </c>
+      <c r="N19">
+        <v>11.083477</v>
+      </c>
+      <c r="O19">
+        <v>0.4569415726210645</v>
+      </c>
+      <c r="P19">
+        <v>0.4569415726210645</v>
+      </c>
+      <c r="Q19">
+        <v>4.901006389122334</v>
+      </c>
+      <c r="R19">
+        <v>44.109057502101</v>
+      </c>
+      <c r="S19">
+        <v>0.0328455472230157</v>
+      </c>
+      <c r="T19">
+        <v>0.0328455472230157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.326571</v>
+      </c>
+      <c r="H20">
+        <v>3.979713</v>
+      </c>
+      <c r="I20">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="J20">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.197127</v>
+      </c>
+      <c r="N20">
+        <v>0.5913809999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.02438102809779077</v>
+      </c>
+      <c r="P20">
+        <v>0.02438102809779077</v>
+      </c>
+      <c r="Q20">
+        <v>0.261502961517</v>
+      </c>
+      <c r="R20">
+        <v>2.353526653653</v>
+      </c>
+      <c r="S20">
+        <v>0.001752539619317498</v>
+      </c>
+      <c r="T20">
+        <v>0.001752539619317498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.326571</v>
+      </c>
+      <c r="H21">
+        <v>3.979713</v>
+      </c>
+      <c r="I21">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="J21">
+        <v>0.07188128459096031</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.929004</v>
+      </c>
+      <c r="N21">
+        <v>11.787012</v>
+      </c>
+      <c r="O21">
+        <v>0.4859464047052526</v>
+      </c>
+      <c r="P21">
+        <v>0.4859464047052526</v>
+      </c>
+      <c r="Q21">
+        <v>5.212102765284001</v>
+      </c>
+      <c r="R21">
+        <v>46.908924887556</v>
+      </c>
+      <c r="S21">
+        <v>0.03493045181257224</v>
+      </c>
+      <c r="T21">
+        <v>0.03493045181257224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.253622</v>
+      </c>
+      <c r="H22">
+        <v>18.760866</v>
+      </c>
+      <c r="I22">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="J22">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2646386666666666</v>
+      </c>
+      <c r="N22">
+        <v>0.793916</v>
+      </c>
+      <c r="O22">
+        <v>0.03273099457589211</v>
+      </c>
+      <c r="P22">
+        <v>0.03273099457589212</v>
+      </c>
+      <c r="Q22">
+        <v>1.654950187917333</v>
+      </c>
+      <c r="R22">
+        <v>14.894551691256</v>
+      </c>
+      <c r="S22">
+        <v>0.01109113929531354</v>
+      </c>
+      <c r="T22">
+        <v>0.01109113929531355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.253622</v>
+      </c>
+      <c r="H23">
+        <v>18.760866</v>
+      </c>
+      <c r="I23">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="J23">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.694492333333333</v>
+      </c>
+      <c r="N23">
+        <v>11.083477</v>
+      </c>
+      <c r="O23">
+        <v>0.4569415726210645</v>
+      </c>
+      <c r="P23">
+        <v>0.4569415726210645</v>
+      </c>
+      <c r="Q23">
+        <v>23.10395853456466</v>
+      </c>
+      <c r="R23">
+        <v>207.935626811082</v>
+      </c>
+      <c r="S23">
+        <v>0.1548380273018857</v>
+      </c>
+      <c r="T23">
+        <v>0.1548380273018857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5.57117835317614</v>
-      </c>
-      <c r="H13">
-        <v>5.57117835317614</v>
-      </c>
-      <c r="I13">
-        <v>0.3871356256900297</v>
-      </c>
-      <c r="J13">
-        <v>0.3871356256900297</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.93038466723867</v>
-      </c>
-      <c r="N13">
-        <v>2.93038466723867</v>
-      </c>
-      <c r="O13">
-        <v>0.4372342316375819</v>
-      </c>
-      <c r="P13">
-        <v>0.4372342316375819</v>
-      </c>
-      <c r="Q13">
-        <v>16.32569562459934</v>
-      </c>
-      <c r="R13">
-        <v>16.32569562459934</v>
-      </c>
-      <c r="S13">
-        <v>0.1692689478381147</v>
-      </c>
-      <c r="T13">
-        <v>0.1692689478381147</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.253622</v>
+      </c>
+      <c r="H24">
+        <v>18.760866</v>
+      </c>
+      <c r="I24">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="J24">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.197127</v>
+      </c>
+      <c r="N24">
+        <v>0.5913809999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.02438102809779077</v>
+      </c>
+      <c r="P24">
+        <v>0.02438102809779077</v>
+      </c>
+      <c r="Q24">
+        <v>1.232757743994</v>
+      </c>
+      <c r="R24">
+        <v>11.094819695946</v>
+      </c>
+      <c r="S24">
+        <v>0.008261691473155624</v>
+      </c>
+      <c r="T24">
+        <v>0.008261691473155624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.253622</v>
+      </c>
+      <c r="H25">
+        <v>18.760866</v>
+      </c>
+      <c r="I25">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="J25">
+        <v>0.3388573869821445</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.929004</v>
+      </c>
+      <c r="N25">
+        <v>11.787012</v>
+      </c>
+      <c r="O25">
+        <v>0.4859464047052526</v>
+      </c>
+      <c r="P25">
+        <v>0.4859464047052526</v>
+      </c>
+      <c r="Q25">
+        <v>24.570505852488</v>
+      </c>
+      <c r="R25">
+        <v>221.134552672392</v>
+      </c>
+      <c r="S25">
+        <v>0.1646665289117896</v>
+      </c>
+      <c r="T25">
+        <v>0.1646665289117896</v>
       </c>
     </row>
   </sheetData>
